--- a/data/trans_bre/P16B01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16B01-Habitat-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P16B01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16B01-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>49,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,79%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,5; 63,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 89,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,68; 29,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,08; 233,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 777,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,4; 63,38</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,43</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,78%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,97; 9,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,55; 14,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,43; 6,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,37; 13,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,73; 19,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,0; 10,15</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,82%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,95; 18,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,89; 24,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,51; 31,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,39; 29,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,71; 43,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,61; 60,78</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,97</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,99%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,53; 20,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,71; 12,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,49; 42,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,45; 32,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,0; 19,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,78; 129,88</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,68%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,02%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,14%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,39; 9,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,92; 13,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,8; 11,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,54; 13,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,46; 22,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,36; 23,0</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,36%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,59; 6,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; 9,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 14,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,2; 8,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,22; 14,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 27,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16B01-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,69</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>49,51</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-16,65</t>
+          <t>-16,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>-6,44%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>98,06%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-24,79%</t>
+          <t>-22,22%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-37,5; 63,95</t>
+          <t>-27,38; 14,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 89,11</t>
+          <t>-8,93; 18,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-62,68; 29,87</t>
+          <t>-34,84; 3,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-48,08; 233,25</t>
+          <t>-31,23; 20,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 777,3</t>
+          <t>-10,37; 25,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-77,4; 63,38</t>
+          <t>-41,65; 6,66</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,43</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>10,25</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-17,14</t>
+          <t>18,12</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,85%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-22,78%</t>
+          <t>29,82%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,97; 9,79</t>
+          <t>-12,95; 18,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 14,25</t>
+          <t>-5,89; 24,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,43; 6,94</t>
+          <t>4,51; 31,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,37; 13,96</t>
+          <t>-16,39; 29,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 19,01</t>
+          <t>-7,71; 43,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,0; 10,15</t>
+          <t>6,61; 60,78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,25</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,12</t>
+          <t>21,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>-4,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>47,99%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 18,7</t>
+          <t>-18,53; 20,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 24,51</t>
+          <t>-18,71; 12,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,51; 31,8</t>
+          <t>2,49; 42,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 29,37</t>
+          <t>-22,45; 32,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 43,04</t>
+          <t>-26,0; 19,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 60,78</t>
+          <t>3,78; 129,88</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,97</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>-7,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,23%</t>
+          <t>-1,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>47,99%</t>
+          <t>-3,14%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 20,05</t>
+          <t>-19,39; 9,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 12,19</t>
+          <t>-15,92; 13,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 42,15</t>
+          <t>-16,8; 11,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,45; 32,83</t>
+          <t>-23,54; 13,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,0; 19,8</t>
+          <t>-21,46; 22,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,78; 129,88</t>
+          <t>-24,36; 23,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,92</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,68%</t>
+          <t>-2,75%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,02%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,14%</t>
+          <t>10,36%</t>
         </is>
       </c>
     </row>
@@ -962,124 +962,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 9,0</t>
+          <t>-10,59; 6,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 13,21</t>
+          <t>-5,27; 9,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 11,99</t>
+          <t>-2,15; 14,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,54; 13,09</t>
+          <t>-13,2; 8,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 22,31</t>
+          <t>-7,22; 14,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 23,0</t>
+          <t>-3,02; 27,79</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-2,07</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,23</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-2,75%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>3,82%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>10,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-10,59; 6,4</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-5,27; 9,67</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,15; 14,95</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-13,2; 8,94</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-7,22; 14,57</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-3,02; 27,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P16B01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16B01-Habitat-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,38; 14,44</t>
+          <t>-26,4; 16,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 18,25</t>
+          <t>-8,49; 18,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,84; 3,98</t>
+          <t>-35,92; 3,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,23; 20,82</t>
+          <t>-31,25; 24,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 25,66</t>
+          <t>-9,74; 26,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,65; 6,66</t>
+          <t>-44,85; 4,9</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 18,7</t>
+          <t>-13,92; 18,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 24,51</t>
+          <t>-3,54; 28,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,51; 31,8</t>
+          <t>2,77; 31,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 29,37</t>
+          <t>-17,5; 28,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 43,04</t>
+          <t>-5,06; 51,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,61; 60,78</t>
+          <t>3,45; 62,18</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 20,05</t>
+          <t>-18,71; 18,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 12,19</t>
+          <t>-19,48; 13,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 42,15</t>
+          <t>0,6; 39,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,45; 32,83</t>
+          <t>-22,68; 30,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,0; 19,8</t>
+          <t>-26,32; 23,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 129,88</t>
+          <t>3,06; 123,19</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 9,0</t>
+          <t>-19,33; 8,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 13,21</t>
+          <t>-14,92; 11,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 11,99</t>
+          <t>-17,55; 13,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,54; 13,09</t>
+          <t>-23,41; 11,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 22,31</t>
+          <t>-20,27; 20,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 23,0</t>
+          <t>-25,14; 23,13</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 6,4</t>
+          <t>-10,11; 6,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 9,67</t>
+          <t>-5,6; 10,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 14,95</t>
+          <t>-2,79; 14,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 8,94</t>
+          <t>-12,78; 8,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 14,57</t>
+          <t>-7,45; 16,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 27,79</t>
+          <t>-4,4; 26,8</t>
         </is>
       </c>
     </row>
